--- a/Output/GooglePlayStore_bankingapps.xlsx
+++ b/Output/GooglePlayStore_bankingapps.xlsx
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.5528097</v>
+        <v>4.552591</v>
       </c>
       <c r="F2" t="n">
-        <v>83754</v>
+        <v>83790</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.561534</v>
+        <v>4.5609636</v>
       </c>
       <c r="F3" t="n">
-        <v>156317</v>
+        <v>156366</v>
       </c>
     </row>
     <row r="4">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sep 6, 2022</t>
+          <t>Sep 6, 2022&lt;</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.4965</v>
+        <v>4.494913</v>
       </c>
       <c r="F4" t="n">
-        <v>57535</v>
+        <v>57626</v>
       </c>
     </row>
     <row r="5">
@@ -570,7 +570,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sep 8, 2022</t>
+          <t>Sep 8, 2022&lt;</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.47737</v>
+        <v>4.4778185</v>
       </c>
       <c r="F5" t="n">
-        <v>131995</v>
+        <v>132100</v>
       </c>
     </row>
   </sheetData>

--- a/Output/GooglePlayStore_bankingapps.xlsx
+++ b/Output/GooglePlayStore_bankingapps.xlsx
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.552591</v>
+        <v>4.551249</v>
       </c>
       <c r="F2" t="n">
-        <v>83790</v>
+        <v>83838</v>
       </c>
     </row>
     <row r="3">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.5609636</v>
+        <v>4.561491</v>
       </c>
       <c r="F3" t="n">
-        <v>156366</v>
+        <v>156449</v>
       </c>
     </row>
     <row r="4">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.494913</v>
+        <v>4.4953604</v>
       </c>
       <c r="F4" t="n">
-        <v>57626</v>
+        <v>57764</v>
       </c>
     </row>
     <row r="5">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.4778185</v>
+        <v>4.4796047</v>
       </c>
       <c r="F5" t="n">
-        <v>132100</v>
+        <v>132227</v>
       </c>
     </row>
   </sheetData>

--- a/Output/GooglePlayStore_bankingapps.xlsx
+++ b/Output/GooglePlayStore_bankingapps.xlsx
@@ -1,37 +1,127 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>recentChanges</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>ratings</t>
+  </si>
+  <si>
+    <t>KBC Mobile</t>
+  </si>
+  <si>
+    <t>Belfius Mobile</t>
+  </si>
+  <si>
+    <t>ING Banking</t>
+  </si>
+  <si>
+    <t>Easy Banking App</t>
+  </si>
+  <si>
+    <t>22.8.0</t>
+  </si>
+  <si>
+    <t>22.2.0</t>
+  </si>
+  <si>
+    <t>1.220905.0 (20628108)</t>
+  </si>
+  <si>
+    <t>30.18.19</t>
+  </si>
+  <si>
+    <t>Sep 12, 2022</t>
+  </si>
+  <si>
+    <t>Jun 20, 2022</t>
+  </si>
+  <si>
+    <t>Sep 6, 2022&lt;</t>
+  </si>
+  <si>
+    <t>Sep 8, 2022&lt;</t>
+  </si>
+  <si>
+    <t>﻿We've added some great new features to KBC Mobile. Be sure to download the latest version!_x000D_
+_x000D_
+•	Keep better track of your income and expenditure_x000D_
+•	From now on, ask VAB breakdown assistance for help via KBC Mobile_x000D_
+_x000D_
+Share your thoughts and ideas with us on Facebook or Twitter @KBC_BE</t>
+  </si>
+  <si>
+    <t>Thank you for using the Belfius Mobile app._x000D_
+Discover the latest features:_x000D_
+-Invest sustainably with Re=Bel._x000D_
+-Centralise your loyalty cards in your app’s Wallet via your start screen._x000D_
+-You have lost your bank card? Block it for up to 14 days to search for it._x000D_
+-A transfer to an account outside Europe or in another currency is also possible via your app!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show, don't tell! Unfortunately not much to show this time. But the app is running better with the improvements we have done for you. </t>
+  </si>
+  <si>
+    <t>New features_x000D_
+_x000D_
+We are constantly improving your app. Discover the new features in this release: _x000D_
+_x000D_
+-        Within budget analysis, you can now change the category of several items of income or spending at the same time._x000D_
+_x000D_
+-        Take out your assistance directly in the app before you leave and receive a rapid response in the event of a breakdown or other incident.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +136,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,175 +452,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>version</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>updated</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>recentChanges</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ratings</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KBC Mobile</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>22.8.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sep 12, 2022</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>﻿We've added some great new features to KBC Mobile. Be sure to download the latest version!
-•	Keep better track of your income and expenditure
-•	From now on, ask VAB breakdown assistance for help via KBC Mobile
-Share your thoughts and ideas with us on Facebook or Twitter @KBC_BE</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>4.551249</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83838</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>4.5513515</v>
+      </c>
+      <c r="F2">
+        <v>83843</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Belfius Mobile</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>22.2.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jun 20, 2022</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Thank you for using the Belfius Mobile app.
-Discover the latest features:
--Invest sustainably with Re=Bel.
--Centralise your loyalty cards in your app’s Wallet via your start screen.
--You have lost your bank card? Block it for up to 14 days to search for it.
--A transfer to an account outside Europe or in another currency is also possible via your app!</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>4.561491</v>
-      </c>
-      <c r="F3" t="n">
-        <v>156449</v>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>4.561718</v>
+      </c>
+      <c r="F3">
+        <v>156456</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ING Banking</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.220905.0 (20628108)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sep 6, 2022&lt;</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Show, don't tell! Unfortunately not much to show this time. But the app is running better with the improvements we have done for you. </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.4953604</v>
-      </c>
-      <c r="F4" t="n">
-        <v>57764</v>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>4.4959106</v>
+      </c>
+      <c r="F4">
+        <v>57773</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Easy Banking App</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>30.18.19</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Sep 8, 2022&lt;</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>New features
-We are constantly improving your app. Discover the new features in this release: 
--        Within budget analysis, you can now change the category of several items of income or spending at the same time.
--        Take out your assistance directly in the app before you leave and receive a rapid response in the event of a breakdown or other incident.</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4.4796047</v>
-      </c>
-      <c r="F5" t="n">
-        <v>132227</v>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>4.479281</v>
+      </c>
+      <c r="F5">
+        <v>132247</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>